--- a/results/UNEP-Gap-Report-2024-Chapter-2-Data-Figures-Tables.xlsx
+++ b/results/UNEP-Gap-Report-2024-Chapter-2-Data-Figures-Tables.xlsx
@@ -19,12 +19,12 @@
     <sheet name="table1" sheetId="7" r:id="rId5"/>
     <sheet name="table2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="171">
   <si>
     <t>gas</t>
   </si>
@@ -188,10 +188,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>Energy: Power
- (27%)</t>
-  </si>
-  <si>
     <t>Energy: Industry
  (11%)</t>
   </si>
@@ -208,23 +204,12 @@
  (10%)</t>
   </si>
   <si>
-    <t>Industrial processes
- (8%)</t>
-  </si>
-  <si>
-    <t>AFOLU: Agriculture
- (12%)</t>
-  </si>
-  <si>
     <t>AFOLU: LULUCF
  (7%)</t>
   </si>
   <si>
     <t>Waste &amp; Other
  (4%)</t>
-  </si>
-  <si>
-    <t>Power (27%)</t>
   </si>
   <si>
     <t>Industry (11%)</t>
@@ -251,9 +236,6 @@
     <t>Other (Fuel production) (3%)</t>
   </si>
   <si>
-    <t>Cement (incl. carbonation) (1%)</t>
-  </si>
-  <si>
     <t>Chemicals (2%)</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
   </si>
   <si>
     <t>LULUCF (7%)</t>
-  </si>
-  <si>
-    <t>Fires (0%)</t>
   </si>
   <si>
     <t>Solid waste (2%)</t>
@@ -371,30 +350,6 @@
     <t>GHG</t>
   </si>
   <si>
-    <t>53.3±5.5</t>
-  </si>
-  <si>
-    <t>55.2±5.4</t>
-  </si>
-  <si>
-    <t>55.6±5.4</t>
-  </si>
-  <si>
-    <t>56.4±5.4</t>
-  </si>
-  <si>
-    <t>35.6±2.9</t>
-  </si>
-  <si>
-    <t>37.3±3</t>
-  </si>
-  <si>
-    <t>37.4±3</t>
-  </si>
-  <si>
-    <t>38.3±3.1</t>
-  </si>
-  <si>
     <t>5±3.5</t>
   </si>
   <si>
@@ -413,28 +368,10 @@
     <t>-2.7±-1.9</t>
   </si>
   <si>
-    <t>9.1±2.7</t>
-  </si>
-  <si>
-    <t>9.5±2.9</t>
-  </si>
-  <si>
-    <t>9.7±2.9</t>
-  </si>
-  <si>
-    <t>9.9±3</t>
-  </si>
-  <si>
-    <t>2.4±1.5</t>
-  </si>
-  <si>
     <t>2.5±1.5</t>
   </si>
   <si>
     <t>2.6±1.5</t>
-  </si>
-  <si>
-    <t>2.6±1.6</t>
   </si>
   <si>
     <t>1.2±0.35</t>
@@ -553,11 +490,71 @@
   <si>
     <t>European Union (27 countries)</t>
   </si>
+  <si>
+    <t>53.8±5.5</t>
+  </si>
+  <si>
+    <t>55.9±5.4</t>
+  </si>
+  <si>
+    <t>56.3±5.4</t>
+  </si>
+  <si>
+    <t>57.1±5.4</t>
+  </si>
+  <si>
+    <t>36.3±2.9</t>
+  </si>
+  <si>
+    <t>38.1±3</t>
+  </si>
+  <si>
+    <t>38.2±3.1</t>
+  </si>
+  <si>
+    <t>39±3.1</t>
+  </si>
+  <si>
+    <t>9±2.7</t>
+  </si>
+  <si>
+    <t>9.4±2.8</t>
+  </si>
+  <si>
+    <t>9.6±2.9</t>
+  </si>
+  <si>
+    <t>9.8±2.9</t>
+  </si>
+  <si>
+    <t>2.4±1.4</t>
+  </si>
+  <si>
+    <t>Energy: Power
+ (26%)</t>
+  </si>
+  <si>
+    <t>Industrial processes
+ (9%)</t>
+  </si>
+  <si>
+    <t>AFOLU: Agriculture
+ (11%)</t>
+  </si>
+  <si>
+    <t>Power (26%)</t>
+  </si>
+  <si>
+    <t>Cement (incl. carbonation) (3%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,10 +589,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -892,18 +891,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1008,122 +1007,122 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
-        <v>22.4746124281072</v>
+        <v>22.680407645868598</v>
       </c>
       <c r="D2" s="1">
-        <v>22.591269052974202</v>
+        <v>22.809536297636502</v>
       </c>
       <c r="E2" s="1">
-        <v>22.4886610782597</v>
+        <v>22.709743818237801</v>
       </c>
       <c r="F2" s="1">
-        <v>22.5667469413882</v>
+        <v>22.802889536558101</v>
       </c>
       <c r="G2" s="1">
-        <v>22.7844131853923</v>
+        <v>23.0332882624284</v>
       </c>
       <c r="H2" s="1">
-        <v>23.417157101167899</v>
+        <v>23.679355685499701</v>
       </c>
       <c r="I2" s="1">
-        <v>23.873344982657301</v>
+        <v>24.1454615866949</v>
       </c>
       <c r="J2" s="1">
-        <v>24.3158960912425</v>
+        <v>24.598165501864599</v>
       </c>
       <c r="K2" s="1">
-        <v>24.471247595264501</v>
+        <v>24.756320524813699</v>
       </c>
       <c r="L2" s="1">
-        <v>24.644404099793501</v>
+        <v>24.939616698501499</v>
       </c>
       <c r="M2" s="1">
-        <v>25.419146371677801</v>
+        <v>25.725448476800601</v>
       </c>
       <c r="N2" s="1">
-        <v>25.715440087761198</v>
+        <v>26.031174557958</v>
       </c>
       <c r="O2" s="1">
-        <v>26.101383885989701</v>
+        <v>26.433301439334699</v>
       </c>
       <c r="P2" s="1">
-        <v>27.300157645988101</v>
+        <v>27.656832702826801</v>
       </c>
       <c r="Q2" s="1">
-        <v>28.567187046319301</v>
+        <v>28.948758323006199</v>
       </c>
       <c r="R2" s="1">
-        <v>29.636965100330102</v>
+        <v>30.044555317045099</v>
       </c>
       <c r="S2" s="1">
-        <v>30.621373746366899</v>
+        <v>31.065108163358101</v>
       </c>
       <c r="T2" s="1">
-        <v>31.754514506967599</v>
+        <v>32.232530428789801</v>
       </c>
       <c r="U2" s="1">
-        <v>31.937515376567301</v>
+        <v>32.431271463193802</v>
       </c>
       <c r="V2" s="1">
-        <v>31.501819180022</v>
+        <v>32.020697928627897</v>
       </c>
       <c r="W2" s="1">
-        <v>33.452647229694101</v>
+        <v>34.003670767368703</v>
       </c>
       <c r="X2" s="1">
-        <v>34.462953082389603</v>
+        <v>35.059589728360997</v>
       </c>
       <c r="Y2" s="1">
-        <v>34.901183538237198</v>
+        <v>35.521729033716603</v>
       </c>
       <c r="Z2" s="1">
-        <v>35.571319348406298</v>
+        <v>36.2211598330219</v>
       </c>
       <c r="AA2" s="1">
-        <v>35.749706541928703</v>
+        <v>36.427790948667102</v>
       </c>
       <c r="AB2" s="1">
-        <v>35.618714602643202</v>
+        <v>36.3004906493154</v>
       </c>
       <c r="AC2" s="1">
-        <v>35.734327745759103</v>
+        <v>36.423675573838999</v>
       </c>
       <c r="AD2" s="1">
-        <v>36.3432184503326</v>
+        <v>37.047484709558603</v>
       </c>
       <c r="AE2" s="1">
-        <v>37.2478509083234</v>
+        <v>37.974568192752002</v>
       </c>
       <c r="AF2" s="1">
-        <v>37.327312141846399</v>
+        <v>38.066450527421203</v>
       </c>
       <c r="AG2" s="1">
-        <v>35.395843122170803</v>
+        <v>36.154321504134003</v>
       </c>
       <c r="AH2" s="1">
-        <v>37.327333929764997</v>
+        <v>38.1210297863798</v>
       </c>
       <c r="AI2" s="1">
-        <v>37.449268687521901</v>
+        <v>38.246638941348102</v>
       </c>
       <c r="AJ2" s="1">
-        <v>38.253952707346798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+        <v>39.023952707346801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1">
         <v>5.1706503688888903</v>
@@ -1228,12 +1227,12 @@
         <v>4.0333333333333297</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>7.6225145830668097</v>
@@ -1257,93 +1256,93 @@
         <v>7.7274715797340203</v>
       </c>
       <c r="J4" s="1">
-        <v>8.4131919023039696</v>
+        <v>7.6900239023039703</v>
       </c>
       <c r="K4" s="1">
-        <v>7.7498196075429702</v>
+        <v>7.5913476075429704</v>
       </c>
       <c r="L4" s="1">
-        <v>7.7060958402063298</v>
+        <v>7.5978438402063304</v>
       </c>
       <c r="M4" s="1">
-        <v>7.7337854359504998</v>
+        <v>7.6696154359505</v>
       </c>
       <c r="N4" s="1">
-        <v>7.7107171696429804</v>
+        <v>7.65435916964298</v>
       </c>
       <c r="O4" s="1">
-        <v>7.8150532321596096</v>
+        <v>7.6186372321596103</v>
       </c>
       <c r="P4" s="1">
-        <v>7.9327231533578901</v>
+        <v>7.83312015335789</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.1582585733727893</v>
+        <v>7.9869525733727897</v>
       </c>
       <c r="R4" s="1">
-        <v>8.2864887418987596</v>
+        <v>8.1269007418987709</v>
       </c>
       <c r="S4" s="1">
-        <v>8.5501001317437808</v>
+        <v>8.2680311317437791</v>
       </c>
       <c r="T4" s="1">
-        <v>8.4643764883272805</v>
+        <v>8.3318514883272794</v>
       </c>
       <c r="U4" s="1">
-        <v>8.5027336518986001</v>
+        <v>8.4525136518986006</v>
       </c>
       <c r="V4" s="1">
-        <v>8.5905479505667692</v>
+        <v>8.4256589505667705</v>
       </c>
       <c r="W4" s="1">
-        <v>8.6924175616957005</v>
+        <v>8.5615665616957006</v>
       </c>
       <c r="X4" s="1">
-        <v>8.8478598988131605</v>
+        <v>8.7563478988131607</v>
       </c>
       <c r="Y4" s="1">
-        <v>8.9404765674256197</v>
+        <v>8.8347355674256196</v>
       </c>
       <c r="Z4" s="1">
-        <v>8.9408893372863503</v>
+        <v>8.8591423372863503</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.11557113080082</v>
+        <v>8.9264091308008204</v>
       </c>
       <c r="AB4" s="1">
-        <v>9.2795393352473692</v>
+        <v>8.9531093352473707</v>
       </c>
       <c r="AC4" s="1">
-        <v>9.0947438137482504</v>
+        <v>9.0076958137482492</v>
       </c>
       <c r="AD4" s="1">
-        <v>9.1957124067281608</v>
+        <v>9.1307054067281594</v>
       </c>
       <c r="AE4" s="1">
-        <v>9.3430527254459506</v>
+        <v>9.2719077254459492</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.5353730773819603</v>
+        <v>9.3473270773819603</v>
       </c>
       <c r="AG4" s="1">
-        <v>9.3469411739650194</v>
+        <v>9.2646361739650196</v>
       </c>
       <c r="AH4" s="1">
-        <v>9.5067059548069697</v>
+        <v>9.4414199548069693</v>
       </c>
       <c r="AI4" s="1">
-        <v>9.6923761504121693</v>
+        <v>9.6265321504121708</v>
       </c>
       <c r="AJ4" s="1">
-        <v>9.8531124296538195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+        <v>9.7532304296538204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>1.93516547361352</v>
@@ -1367,93 +1366,93 @@
         <v>2.0777762743769599</v>
       </c>
       <c r="J5" s="1">
-        <v>2.1623031796468299</v>
+        <v>2.04163717964683</v>
       </c>
       <c r="K5" s="1">
-        <v>2.1121460508801602</v>
+        <v>2.05372405088016</v>
       </c>
       <c r="L5" s="1">
-        <v>2.1099370542918101</v>
+        <v>2.07335505429181</v>
       </c>
       <c r="M5" s="1">
-        <v>2.08849446678874</v>
+        <v>2.0644704667887401</v>
       </c>
       <c r="N5" s="1">
-        <v>2.0727406852848702</v>
+        <v>2.05554168528487</v>
       </c>
       <c r="O5" s="1">
-        <v>2.1116735956346901</v>
+        <v>2.0652635956346899</v>
       </c>
       <c r="P5" s="1">
-        <v>2.1325407062594102</v>
+        <v>2.1008727062594099</v>
       </c>
       <c r="Q5" s="1">
-        <v>2.2082836569242801</v>
+        <v>2.1583246569242802</v>
       </c>
       <c r="R5" s="1">
-        <v>2.2330475076013498</v>
+        <v>2.18308850760135</v>
       </c>
       <c r="S5" s="1">
-        <v>2.2784049542816298</v>
+        <v>2.2229859542816301</v>
       </c>
       <c r="T5" s="1">
-        <v>2.3177748409455199</v>
+        <v>2.2675428409455201</v>
       </c>
       <c r="U5" s="1">
-        <v>2.2610834094010599</v>
+        <v>2.2427924094010598</v>
       </c>
       <c r="V5" s="1">
-        <v>2.2753051267100499</v>
+        <v>2.2422721267100498</v>
       </c>
       <c r="W5" s="1">
-        <v>2.3265616768856199</v>
+        <v>2.27632967688562</v>
       </c>
       <c r="X5" s="1">
-        <v>2.3562983612311199</v>
+        <v>2.3320013612311099</v>
       </c>
       <c r="Y5" s="1">
-        <v>2.3791682533513701</v>
+        <v>2.3491382533513701</v>
       </c>
       <c r="Z5" s="1">
-        <v>2.4075585547826299</v>
+        <v>2.3832615547826301</v>
       </c>
       <c r="AA5" s="1">
-        <v>2.4245239458342298</v>
+        <v>2.38193594583423</v>
       </c>
       <c r="AB5" s="1">
-        <v>2.4645065586739401</v>
+        <v>2.3987135586739399</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.45537127736285</v>
+        <v>2.4237032773628502</v>
       </c>
       <c r="AD5" s="1">
-        <v>2.4580703351539399</v>
+        <v>2.4337733351539401</v>
       </c>
       <c r="AE5" s="1">
-        <v>2.4696105139953799</v>
+        <v>2.4472245139953701</v>
       </c>
       <c r="AF5" s="1">
-        <v>2.5251494804205601</v>
+        <v>2.4798314804205601</v>
       </c>
       <c r="AG5" s="1">
-        <v>2.5157121465471302</v>
+        <v>2.4845901465471298</v>
       </c>
       <c r="AH5" s="1">
-        <v>2.5390094865049102</v>
+        <v>2.51443948650491</v>
       </c>
       <c r="AI5" s="1">
-        <v>2.5599855091778498</v>
+        <v>2.5348695091778501</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2.5920629697842501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+        <v>2.5620329697842501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1">
         <v>0.41247591236178499</v>
@@ -1558,7 +1557,7 @@
         <v>1.67905936972367</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1594,6 +1593,26 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="3"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="3"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1602,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1633,7 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1622,32 +1641,32 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1">
         <v>15.076190763395701</v>
       </c>
       <c r="D2" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>6.4527530755719802</v>
@@ -1656,12 +1675,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>8.3857034909588393</v>
@@ -1670,12 +1689,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>3.5817054304039502</v>
@@ -1684,12 +1703,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>5.7596495689008798</v>
@@ -1698,54 +1717,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1">
-        <v>4.2807024084349701</v>
+        <v>5.0507024084349696</v>
       </c>
       <c r="D7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1">
         <v>6.5061583644244898</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
-        <v>4.1632453333333297</v>
+        <v>4.0333333333333297</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>2.20541237441777</v>
@@ -1754,26 +1774,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1">
         <v>15.076190763395701</v>
       </c>
       <c r="D11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1">
         <v>6.4527530755719802</v>
@@ -1782,12 +1802,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>0.90300442678045401</v>
@@ -1796,12 +1816,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1">
         <v>6.2771201005838</v>
@@ -1810,12 +1830,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>1.2055789635945899</v>
@@ -1824,12 +1844,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1">
         <v>3.5817054304039502</v>
@@ -1843,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>1.9714785460823301</v>
@@ -1857,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>2.0152926880108799</v>
@@ -1871,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1">
         <v>1.77287833480767</v>
@@ -1885,13 +1905,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1">
-        <v>0.73276015929312299</v>
+        <v>1.5027601592931199</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>1.0215513274457999</v>
@@ -1913,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>0.46735639642599902</v>
@@ -1927,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1">
         <v>2.0590345252700502</v>
@@ -1941,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>3.5912273704557101</v>
@@ -1955,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
         <v>2.9149309939687802</v>
@@ -1969,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>4.0333333333333297</v>
@@ -1983,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
-        <v>0.129912</v>
+        <v>1.17469205102229</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,13 +2017,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1">
-        <v>1.17469205102229</v>
+        <v>0.80192021388051105</v>
       </c>
       <c r="D28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,26 +2031,12 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
-        <v>0.80192021388051105</v>
+        <v>0.22880010951497501</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.22880010951497501</v>
-      </c>
-      <c r="D30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2051,16 +2057,16 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -2167,13 +2173,13 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2260,13 +2266,13 @@
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2353,13 +2359,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2446,13 +2452,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2539,13 +2545,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2632,13 +2638,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2725,13 +2731,13 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2818,13 +2824,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2911,13 +2917,13 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3004,13 +3010,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3097,13 +3103,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3190,13 +3196,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>108</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3283,13 +3289,13 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3376,13 +3382,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3469,13 +3475,13 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3562,13 +3568,13 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3655,13 +3661,13 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3748,13 +3754,13 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3841,13 +3847,13 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3934,13 +3940,13 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
         <v>102</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -4027,13 +4033,13 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -4120,13 +4126,13 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -4213,13 +4219,13 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4306,13 +4312,13 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" t="s">
         <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -4399,13 +4405,13 @@
         <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4492,13 +4498,13 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4585,13 +4591,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4678,13 +4684,13 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>102</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4771,13 +4777,13 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1">
         <v>25.37322868291</v>
@@ -4882,13 +4888,13 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1">
         <v>20.204560909770201</v>
@@ -4993,13 +4999,13 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1">
         <v>18.396602046535801</v>
@@ -5104,13 +5110,13 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E33" s="1">
         <v>30.251813463941499</v>
@@ -5215,13 +5221,13 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
-        <v>100</v>
-      </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E34" s="1">
         <v>73.532479135025199</v>
@@ -5326,13 +5332,13 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1">
         <v>1.07302843692281</v>
@@ -5437,13 +5443,13 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1">
         <v>8.0394019184625698</v>
@@ -5548,13 +5554,13 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1">
         <v>17.355090509589399</v>
@@ -5659,13 +5665,13 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E38" s="1">
         <v>16.213263474980799</v>
@@ -5770,13 +5776,13 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E39" s="1">
         <v>38.738744826525803</v>
@@ -5881,13 +5887,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E40" s="1">
         <v>15.596353851687001</v>
@@ -5992,13 +5998,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1">
         <v>26.2597744545516</v>
@@ -6103,13 +6109,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1">
         <v>44.679930983293197</v>
@@ -6214,13 +6220,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E43" s="1">
         <v>1.6785963978451599</v>
@@ -6325,13 +6331,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1">
         <v>13.9642003473946</v>
@@ -6436,13 +6442,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E45" s="1">
         <v>15.3755221545727</v>
@@ -6547,13 +6553,13 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1">
         <v>19.215329787972699</v>
@@ -6658,13 +6664,13 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E47" s="1">
         <v>27.8321759263868</v>
@@ -6769,13 +6775,13 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1">
         <v>17.378726201268702</v>
@@ -6880,13 +6886,13 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1">
         <v>30.978736655797601</v>
@@ -6991,13 +6997,13 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E50" s="1">
         <v>6.9802944668010696</v>
@@ -7102,13 +7108,13 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E51" s="1">
         <v>14.6199452853281</v>
@@ -7213,13 +7219,13 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E52" s="1">
         <v>11.724598392219299</v>
@@ -7324,13 +7330,13 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E53" s="1">
         <v>66.672993790787103</v>
@@ -7435,13 +7441,13 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E54" s="1">
         <v>8.8922284388004194</v>
@@ -7546,13 +7552,13 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E55" s="1">
         <v>3.61421942979897</v>
@@ -7657,13 +7663,13 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E56" s="1">
         <v>21.083422946191099</v>
@@ -7768,13 +7774,13 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E57" s="1">
         <v>24.173122437358401</v>
@@ -7879,13 +7885,13 @@
         <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E58" s="1">
         <v>32.200843815241598</v>
@@ -7990,13 +7996,13 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E59" s="1">
         <v>19.922649785080001</v>
@@ -8101,13 +8107,13 @@
         <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E60" s="1">
         <v>14.7951345706461</v>
@@ -8212,13 +8218,13 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E61" s="1">
         <v>22.516677552010201</v>
@@ -8323,13 +8329,13 @@
         <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E62" s="1">
         <v>65.439682284295003</v>
@@ -8434,13 +8440,13 @@
         <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E63" s="1">
         <v>0.54095937606918798</v>
@@ -8545,13 +8551,13 @@
         <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E64" s="1">
         <v>2.4076430053327602</v>
@@ -8656,13 +8662,13 @@
         <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E65" s="1">
         <v>1.8416200898466899</v>
@@ -8767,13 +8773,13 @@
         <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E66" s="1">
         <v>0</v>
@@ -8878,13 +8884,13 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1">
         <v>44.385487319525403</v>
@@ -8989,13 +8995,13 @@
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E68" s="1">
         <v>12.914553803456</v>
@@ -9100,13 +9106,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E69" s="1">
         <v>41.643863936562298</v>
@@ -9211,13 +9217,13 @@
         <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E70" s="1">
         <v>80.882675912775696</v>
@@ -9322,13 +9328,13 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E71" s="1">
         <v>3.8063901676544699E-2</v>
@@ -9433,13 +9439,13 @@
         <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E72" s="1">
         <v>10.0685570209404</v>
@@ -9544,13 +9550,13 @@
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E73" s="1">
         <v>3.4138444812448401</v>
@@ -9655,13 +9661,13 @@
         <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E74" s="1">
         <v>6.9869646041795503</v>
@@ -9766,13 +9772,13 @@
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1">
         <v>23.038339298181999</v>
@@ -9877,13 +9883,13 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E76" s="1">
         <v>24.4310178498787</v>
@@ -9988,13 +9994,13 @@
         <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E77" s="1">
         <v>32.554217045722503</v>
@@ -10099,13 +10105,13 @@
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E78" s="1">
         <v>5.9864625843887298</v>
@@ -10210,13 +10216,13 @@
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E79" s="1">
         <v>46.721600607448799</v>
@@ -10321,13 +10327,13 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E80" s="1">
         <v>7.67982997218565</v>
@@ -10432,13 +10438,13 @@
         <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E81" s="1">
         <v>12.488717184891399</v>
@@ -10543,13 +10549,13 @@
         <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E82" s="1">
         <v>38.620326729117799</v>
@@ -10654,13 +10660,13 @@
         <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E83" s="1">
         <v>0.87777957176491705</v>
@@ -10765,13 +10771,13 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E84" s="1">
         <v>26.140919024439501</v>
@@ -10876,13 +10882,13 @@
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E85" s="1">
         <v>34.290446052361403</v>
@@ -10984,16 +10990,16 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E86" s="1">
         <v>0.37385512206240101</v>
@@ -11095,16 +11101,16 @@
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E87" s="1">
         <v>3.5875179392471699</v>
@@ -11206,16 +11212,16 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E88" s="1">
         <v>94.119052453538501</v>
@@ -11317,16 +11323,16 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E89" s="1">
         <v>1.3245836805972599</v>
@@ -11428,16 +11434,16 @@
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -11539,16 +11545,16 @@
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E91" s="1">
         <v>0.13857307387041601</v>
@@ -11650,16 +11656,16 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E92" s="1">
         <v>76.465916583266306</v>
@@ -11761,16 +11767,16 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E93" s="1">
         <v>1.6899210415233701</v>
@@ -11872,16 +11878,16 @@
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -11983,16 +11989,16 @@
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E95" s="1">
         <v>3.1613794905830099</v>
@@ -12094,16 +12100,16 @@
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E96" s="1">
         <v>96.7658396165086</v>
@@ -12205,16 +12211,16 @@
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E97" s="1">
         <v>7.2780892908377207E-2</v>
@@ -12316,16 +12322,16 @@
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -12427,16 +12433,16 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -12538,16 +12544,16 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E100" s="1">
         <v>87.729356700350195</v>
@@ -12649,16 +12655,16 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E101" s="1">
         <v>1.7041084660651999</v>
@@ -12760,16 +12766,16 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E102" s="1">
         <v>8.5608089593357303E-3</v>
@@ -12871,16 +12877,16 @@
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E103" s="1">
         <v>0.15734800883511199</v>
@@ -12982,16 +12988,16 @@
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E104" s="1">
         <v>97.517401936438702</v>
@@ -13093,16 +13099,16 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E105" s="1">
         <v>2.2215168656023598</v>
@@ -13204,16 +13210,16 @@
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -13315,16 +13321,16 @@
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E107" s="1">
         <v>29.3922932800712</v>
@@ -13426,16 +13432,16 @@
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E108" s="1">
         <v>62.906207415050901</v>
@@ -13537,16 +13543,16 @@
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E109" s="1">
         <v>7.7010884617485198</v>
@@ -13648,16 +13654,16 @@
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E110" s="1">
         <v>17.7695789934596</v>
@@ -13759,16 +13765,16 @@
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D111" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E111" s="1">
         <v>5.3473114194335604E-3</v>
@@ -13870,16 +13876,16 @@
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D112" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E112" s="1">
         <v>81.897811573187994</v>
@@ -13981,16 +13987,16 @@
     </row>
     <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E113" s="1">
         <v>0.31144527257118299</v>
@@ -14099,8 +14105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14112,13 +14118,13 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -14225,13 +14231,13 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1">
         <v>643.10348232193905</v>
@@ -14338,13 +14344,13 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1">
         <v>750.23871512320102</v>
@@ -14451,13 +14457,13 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1">
         <v>95.322016205706007</v>
@@ -14564,13 +14570,13 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>590.43930762939499</v>
@@ -14677,13 +14683,13 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>432.88331395018702</v>
@@ -14790,13 +14796,13 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>255.83088639725</v>
@@ -14903,13 +14909,13 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>926.47790076917897</v>
@@ -15016,13 +15022,13 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
         <v>-862</v>
@@ -15100,10 +15106,10 @@
         <v>-1150.9100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-1214.51133</v>
+        <v>-1214.51133333333</v>
       </c>
       <c r="AD9" s="1">
-        <v>-1278.11267</v>
+        <v>-1278.1126666666701</v>
       </c>
       <c r="AE9" s="1">
         <v>-1341.7139999999999</v>
@@ -15125,13 +15131,13 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1">
         <v>168.942791384587</v>
@@ -15238,13 +15244,13 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1">
         <v>3863.2384137814402</v>
@@ -15351,13 +15357,13 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1">
         <v>1917.9017562156801</v>
@@ -15464,13 +15470,13 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1">
         <v>607.00672130815701</v>
@@ -15577,13 +15583,13 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1">
         <v>1456.8029525459999</v>
@@ -15690,13 +15696,13 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1">
         <v>598.66175702326302</v>
@@ -15803,13 +15809,13 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1">
         <v>672.11579564074805</v>
@@ -15916,13 +15922,13 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1">
         <v>322.262018520119</v>
@@ -16029,13 +16035,13 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1">
         <v>356.99668994008198</v>
@@ -16142,13 +16148,13 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1">
         <v>-938.85555699999998</v>
@@ -16181,83 +16187,83 @@
         <v>-900.53315599999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-902.01163499999996</v>
+        <v>-902.01163503937903</v>
       </c>
       <c r="O19" s="1">
-        <v>-899.93754999999999</v>
+        <v>-899.93754992977301</v>
       </c>
       <c r="P19" s="1">
-        <v>-867.11934199999996</v>
+        <v>-867.11934193185903</v>
       </c>
       <c r="Q19" s="1">
-        <v>-891.40225699999996</v>
+        <v>-891.40225675435499</v>
       </c>
       <c r="R19" s="1">
-        <v>-791.286247</v>
+        <v>-791.28624706388996</v>
       </c>
       <c r="S19" s="1">
-        <v>-853.52852499999995</v>
+        <v>-853.52852471974995</v>
       </c>
       <c r="T19" s="1">
-        <v>-882.59499300000004</v>
+        <v>-882.59499273489996</v>
       </c>
       <c r="U19" s="1">
-        <v>-843.12475700000005</v>
+        <v>-843.12475740249602</v>
       </c>
       <c r="V19" s="1">
-        <v>-824.66167299999995</v>
+        <v>-824.66167275275598</v>
       </c>
       <c r="W19" s="1">
-        <v>-787.01407300000005</v>
+        <v>-787.01407349415194</v>
       </c>
       <c r="X19" s="1">
-        <v>-807.36663099999998</v>
+        <v>-807.36663114913495</v>
       </c>
       <c r="Y19" s="1">
-        <v>-853.78091800000004</v>
+        <v>-853.78091811189802</v>
       </c>
       <c r="Z19" s="1">
-        <v>-849.38322600000004</v>
+        <v>-849.38322615985805</v>
       </c>
       <c r="AA19" s="1">
-        <v>-813.49226399999998</v>
+        <v>-813.49226386417899</v>
       </c>
       <c r="AB19" s="1">
-        <v>-826.85000500000001</v>
+        <v>-826.85000492933705</v>
       </c>
       <c r="AC19" s="1">
-        <v>-752.23648200000002</v>
+        <v>-752.236481553261</v>
       </c>
       <c r="AD19" s="1">
-        <v>-874.24142099999995</v>
+        <v>-874.24142139144396</v>
       </c>
       <c r="AE19" s="1">
-        <v>-842.51592700000003</v>
+        <v>-842.51592682820899</v>
       </c>
       <c r="AF19" s="1">
-        <v>-829.500854</v>
+        <v>-829.50085384846398</v>
       </c>
       <c r="AG19" s="1">
-        <v>-768.22449800000004</v>
+        <v>-768.224498284437</v>
       </c>
       <c r="AH19" s="1">
-        <v>-852.53443400000003</v>
+        <v>-852.53443412164904</v>
       </c>
       <c r="AI19" s="1">
-        <v>-832.03897300000006</v>
+        <v>-832.03897272536005</v>
       </c>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1">
         <v>271.68147208887399</v>
@@ -16364,13 +16370,13 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1">
         <v>6203.4291632829199</v>
@@ -16477,13 +16483,13 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1">
         <v>6556.5478653343298</v>
@@ -16586,13 +16592,13 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1">
         <v>217.19460107536699</v>
@@ -16699,13 +16705,13 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1">
         <v>151.296143599864</v>
@@ -16812,13 +16818,13 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1">
         <v>66.9776985829658</v>
@@ -16925,13 +16931,13 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1">
         <v>106.919870462763</v>
@@ -17038,13 +17044,13 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1">
         <v>84.855782863608297</v>
@@ -17151,13 +17157,13 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1">
         <v>53.5241910688774</v>
@@ -17264,13 +17270,13 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1">
         <v>603.08813080725099</v>
@@ -17377,13 +17383,13 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1">
         <v>14.292</v>
@@ -17419,22 +17425,22 @@
         <v>-222.56700000000001</v>
       </c>
       <c r="O30" s="1">
-        <v>-216.061429</v>
+        <v>-216.06142857142899</v>
       </c>
       <c r="P30" s="1">
-        <v>-209.555857</v>
+        <v>-209.55585714285701</v>
       </c>
       <c r="Q30" s="1">
-        <v>-203.050286</v>
+        <v>-203.05028571428599</v>
       </c>
       <c r="R30" s="1">
-        <v>-196.544714</v>
+        <v>-196.54471428571401</v>
       </c>
       <c r="S30" s="1">
-        <v>-190.039143</v>
+        <v>-190.03914285714299</v>
       </c>
       <c r="T30" s="1">
-        <v>-183.53357099999999</v>
+        <v>-183.53357142857101</v>
       </c>
       <c r="U30" s="1">
         <v>-177.02799999999999</v>
@@ -17486,13 +17492,13 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1">
         <v>97.850308759793506</v>
@@ -17599,13 +17605,13 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1">
         <v>1381.7067272204899</v>
@@ -17712,13 +17718,13 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1">
         <v>1334.49557637474</v>
@@ -17825,13 +17831,13 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1">
         <v>671.78624006293205</v>
@@ -17938,13 +17944,13 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1">
         <v>655.35578264782896</v>
@@ -18051,13 +18057,13 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
         <v>710.04388529717403</v>
@@ -18164,13 +18170,13 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1">
         <v>371.229462988509</v>
@@ -18277,13 +18283,13 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1">
         <v>385.37274307629298</v>
@@ -18390,13 +18396,13 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1">
         <v>522.34475055834503</v>
@@ -18503,13 +18509,13 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1">
         <v>-234.31771800000001</v>
@@ -18542,83 +18548,83 @@
         <v>-376.64738</v>
       </c>
       <c r="N40" s="1">
-        <v>-329.426783</v>
+        <v>-329.42678343734701</v>
       </c>
       <c r="O40" s="1">
-        <v>-376.85329300000001</v>
+        <v>-376.853293264027</v>
       </c>
       <c r="P40" s="1">
-        <v>-343.53208799999999</v>
+        <v>-343.53208789109101</v>
       </c>
       <c r="Q40" s="1">
-        <v>-335.33155299999999</v>
+        <v>-335.33155329613101</v>
       </c>
       <c r="R40" s="1">
-        <v>-371.21514999999999</v>
+        <v>-371.21514989808298</v>
       </c>
       <c r="S40" s="1">
-        <v>-365.70754499999998</v>
+        <v>-365.70754501505797</v>
       </c>
       <c r="T40" s="1">
-        <v>-373.74368099999998</v>
+        <v>-373.74368071233101</v>
       </c>
       <c r="U40" s="1">
-        <v>-325.29031600000002</v>
+        <v>-325.29031623390301</v>
       </c>
       <c r="V40" s="1">
-        <v>-367.16328700000003</v>
+        <v>-367.16328676263998</v>
       </c>
       <c r="W40" s="1">
-        <v>-369.85040500000002</v>
+        <v>-369.85040524667897</v>
       </c>
       <c r="X40" s="1">
-        <v>-375.45657299999999</v>
+        <v>-375.45657340111899</v>
       </c>
       <c r="Y40" s="1">
-        <v>-369.67480799999998</v>
+        <v>-369.67480774300202</v>
       </c>
       <c r="Z40" s="1">
-        <v>-366.94334500000002</v>
+        <v>-366.94334533945801</v>
       </c>
       <c r="AA40" s="1">
-        <v>-364.47553499999998</v>
+        <v>-364.47553495953599</v>
       </c>
       <c r="AB40" s="1">
-        <v>-348.94904400000001</v>
+        <v>-348.94904405104103</v>
       </c>
       <c r="AC40" s="1">
-        <v>-344.58293600000002</v>
+        <v>-344.58293576675999</v>
       </c>
       <c r="AD40" s="1">
-        <v>-340.76823999999999</v>
+        <v>-340.76824013293401</v>
       </c>
       <c r="AE40" s="1">
-        <v>-274.023394</v>
+        <v>-274.02339428238201</v>
       </c>
       <c r="AF40" s="1">
-        <v>-280.28410700000001</v>
+        <v>-280.28410741180898</v>
       </c>
       <c r="AG40" s="1">
-        <v>-267.68971399999998</v>
+        <v>-267.689714484212</v>
       </c>
       <c r="AH40" s="1">
-        <v>-264.033297</v>
+        <v>-264.03329724818298</v>
       </c>
       <c r="AI40" s="1">
-        <v>-253.37588099999999</v>
+        <v>-253.375880835602</v>
       </c>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1">
         <v>229.77117059059</v>
@@ -18725,13 +18731,13 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1">
         <v>4880.3996115964201</v>
@@ -18838,13 +18844,13 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1">
         <v>4893.5843761850501</v>
@@ -18947,13 +18953,13 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1">
         <v>1179.38315444203</v>
@@ -19060,13 +19066,13 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1">
         <v>251.94576934408801</v>
@@ -19173,13 +19179,13 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1">
         <v>304.55339095191601</v>
@@ -19286,13 +19292,13 @@
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1">
         <v>349.86606019648201</v>
@@ -19399,13 +19405,13 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1">
         <v>454.81363893948702</v>
@@ -19512,13 +19518,13 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1">
         <v>186.14466201268999</v>
@@ -19625,13 +19631,13 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
         <v>244.050098917757</v>
@@ -19738,13 +19744,13 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1">
         <v>-108.038563</v>
@@ -19777,83 +19783,83 @@
         <v>-488.128647</v>
       </c>
       <c r="N51" s="1">
-        <v>-507.693647</v>
+        <v>-507.69364710872998</v>
       </c>
       <c r="O51" s="1">
-        <v>-557.73860200000001</v>
+        <v>-557.73860232534605</v>
       </c>
       <c r="P51" s="1">
-        <v>-585.57485099999997</v>
+        <v>-585.57485085106998</v>
       </c>
       <c r="Q51" s="1">
-        <v>-592.18236000000002</v>
+        <v>-592.18235973594506</v>
       </c>
       <c r="R51" s="1">
-        <v>-575.38092300000005</v>
+        <v>-575.38092340220601</v>
       </c>
       <c r="S51" s="1">
-        <v>-576.77776600000004</v>
+        <v>-576.77776557421998</v>
       </c>
       <c r="T51" s="1">
-        <v>-581.68886099999997</v>
+        <v>-581.68886053954395</v>
       </c>
       <c r="U51" s="1">
-        <v>-598.99561300000005</v>
+        <v>-598.99561251089096</v>
       </c>
       <c r="V51" s="1">
-        <v>-639.04822100000001</v>
+        <v>-639.04822142846206</v>
       </c>
       <c r="W51" s="1">
-        <v>-715.92094999999995</v>
+        <v>-715.92094975302803</v>
       </c>
       <c r="X51" s="1">
-        <v>-731.29830900000002</v>
+        <v>-731.29830940399302</v>
       </c>
       <c r="Y51" s="1">
-        <v>-684.15682800000002</v>
+        <v>-684.15682812426803</v>
       </c>
       <c r="Z51" s="1">
-        <v>-695.01882599999999</v>
+        <v>-695.01882620986805</v>
       </c>
       <c r="AA51" s="1">
-        <v>-643.66864099999998</v>
+        <v>-643.66864056233999</v>
       </c>
       <c r="AB51" s="1">
-        <v>-692.30987000000005</v>
+        <v>-692.30987030012</v>
       </c>
       <c r="AC51" s="1">
-        <v>-620.75923399999999</v>
+        <v>-620.75923404008597</v>
       </c>
       <c r="AD51" s="1">
-        <v>-651.69998899999996</v>
+        <v>-651.69998869293602</v>
       </c>
       <c r="AE51" s="1">
-        <v>-641.31129199999998</v>
+        <v>-641.31129236811898</v>
       </c>
       <c r="AF51" s="1">
-        <v>-626.62234799999999</v>
+        <v>-626.62234751943504</v>
       </c>
       <c r="AG51" s="1">
-        <v>-592.02816299999995</v>
+        <v>-592.02816270749702</v>
       </c>
       <c r="AH51" s="1">
-        <v>-593.73015499999997</v>
+        <v>-593.73015549489901</v>
       </c>
       <c r="AI51" s="1">
-        <v>-531.82887900000003</v>
+        <v>-531.82887895110105</v>
       </c>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1">
         <v>88.613543348226401</v>
@@ -19960,13 +19966,13 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1">
         <v>3059.3703181526798</v>
@@ -20073,13 +20079,13 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1">
         <v>3238.0515233219298</v>
@@ -20182,13 +20188,13 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1">
         <v>12.8548304976715</v>
@@ -20295,13 +20301,13 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1">
         <v>49.620728449153603</v>
@@ -20408,13 +20414,13 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1">
         <v>84.0619578513802</v>
@@ -20521,13 +20527,13 @@
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
         <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1">
         <v>31.991447874873401</v>
@@ -20634,13 +20640,13 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1">
         <v>54.420570564242801</v>
@@ -20747,13 +20753,13 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1">
         <v>34.826703220376501</v>
@@ -20860,13 +20866,13 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1">
         <v>334.241422368396</v>
@@ -20973,13 +20979,13 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D62" s="1">
         <v>860.89099999999996</v>
@@ -21082,13 +21088,13 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
         <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1">
         <v>69.502993529014603</v>
@@ -21195,13 +21201,13 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D64" s="1">
         <v>671.52065435510895</v>
@@ -21316,7 +21322,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21326,7 +21332,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -21340,19 +21346,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -21360,16 +21366,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -21377,27 +21383,27 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -21405,16 +21411,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -21422,16 +21428,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21439,16 +21445,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -21461,179 +21467,179 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1">
         <v>2.9</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1">
         <v>7.2</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1">
         <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1">
         <v>8.3000000000000007</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/results/UNEP-Gap-Report-2024-Chapter-2-Data-Figures-Tables.xlsx
+++ b/results/UNEP-Gap-Report-2024-Chapter-2-Data-Figures-Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fig1" sheetId="2" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <t>Power (26%)</t>
   </si>
   <si>
-    <t>Cement (incl. carbonation) (3%)</t>
+    <t>Cement (excl. carbonation) (3%)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2050,10 @@
   <dimension ref="A1:AK113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ70" sqref="AJ70"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AJ38" sqref="A38:AJ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
